--- a/directory_app/FoHL_ALumnae_List_10.3.19_final.xlsx
+++ b/directory_app/FoHL_ALumnae_List_10.3.19_final.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/gracerotondo/Desktop/GOV1005 /Project/WLAX_Directory/directory_app/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{235E3FF6-27DE-C94E-8E17-1B9AB675B132}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{3854B0DF-248D-C544-8D32-653C59A68B6A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="480" windowWidth="26680" windowHeight="16020"/>
   </bookViews>
@@ -13929,7 +13929,7 @@
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A680" zoomScale="162" zoomScaleNormal="130" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="R668" sqref="R668"/>
+      <selection pane="topRight" activeCell="A697" sqref="A697"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>

--- a/directory_app/FoHL_ALumnae_List_10.3.19_final.xlsx
+++ b/directory_app/FoHL_ALumnae_List_10.3.19_final.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/gracerotondo/Desktop/GOV1005 /Project/WLAX_Directory/directory_app/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD889665-B643-AD46-A93D-C48A2849C959}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{20014F14-A06E-A64F-95DB-E0DDBDC216B2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="26680" windowHeight="16020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9062" uniqueCount="4038">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9063" uniqueCount="4039">
   <si>
     <t>First Name</t>
   </si>
@@ -11273,9 +11273,6 @@
     <t>Carolyn Ackerman</t>
   </si>
   <si>
-    <t>Lyndsay Ajemian</t>
-  </si>
-  <si>
     <t>Jo-Anne Cosgriff</t>
   </si>
   <si>
@@ -12144,6 +12141,12 @@
   </si>
   <si>
     <t>mpmccarthy151@gmail.com</t>
+  </si>
+  <si>
+    <t>Lyndsay Murray</t>
+  </si>
+  <si>
+    <t>Murray</t>
   </si>
 </sst>
 </file>
@@ -12664,9 +12667,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:P697"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A685" zoomScale="162" zoomScaleNormal="130" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="162" zoomScaleNormal="130" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="D702" sqref="D702"/>
+      <selection pane="topRight" activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -12849,10 +12852,10 @@
         <v>155</v>
       </c>
       <c r="F4" s="3" t="s">
+        <v>3967</v>
+      </c>
+      <c r="G4" s="3" t="s">
         <v>3968</v>
-      </c>
-      <c r="G4" s="3" t="s">
-        <v>3969</v>
       </c>
       <c r="H4" s="3"/>
       <c r="I4" s="3" t="s">
@@ -13020,7 +13023,7 @@
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A8" s="3" t="s">
-        <v>3934</v>
+        <v>3933</v>
       </c>
       <c r="B8" s="3" t="s">
         <v>497</v>
@@ -13156,12 +13159,14 @@
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A11" s="3" t="s">
-        <v>3747</v>
+        <v>4037</v>
       </c>
       <c r="B11" s="3" t="s">
         <v>1373</v>
       </c>
-      <c r="C11" s="3"/>
+      <c r="C11" s="3" t="s">
+        <v>4038</v>
+      </c>
       <c r="D11" s="3" t="s">
         <v>1374</v>
       </c>
@@ -13169,7 +13174,7 @@
         <v>37</v>
       </c>
       <c r="F11" s="3" t="s">
-        <v>28</v>
+        <v>13</v>
       </c>
       <c r="G11" s="3" t="s">
         <v>7</v>
@@ -13486,7 +13491,7 @@
     </row>
     <row r="18" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A18" s="3" t="s">
-        <v>3795</v>
+        <v>3794</v>
       </c>
       <c r="B18" s="3" t="s">
         <v>628</v>
@@ -13628,7 +13633,7 @@
     </row>
     <row r="21" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A21" s="3" t="s">
-        <v>3750</v>
+        <v>3749</v>
       </c>
       <c r="B21" s="3" t="s">
         <v>1318</v>
@@ -14024,7 +14029,7 @@
     </row>
     <row r="30" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A30" s="3" t="s">
-        <v>3989</v>
+        <v>3988</v>
       </c>
       <c r="B30" s="3" t="s">
         <v>2856</v>
@@ -14536,7 +14541,7 @@
     </row>
     <row r="41" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A41" s="3" t="s">
-        <v>3942</v>
+        <v>3941</v>
       </c>
       <c r="B41" s="3" t="s">
         <v>938</v>
@@ -14582,7 +14587,7 @@
     </row>
     <row r="42" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A42" s="3" t="s">
-        <v>3943</v>
+        <v>3942</v>
       </c>
       <c r="B42" s="3" t="s">
         <v>1630</v>
@@ -14720,7 +14725,7 @@
     </row>
     <row r="45" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A45" s="3" t="s">
-        <v>3914</v>
+        <v>3913</v>
       </c>
       <c r="B45" s="3" t="s">
         <v>2297</v>
@@ -14814,7 +14819,7 @@
     </row>
     <row r="47" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A47" s="3" t="s">
-        <v>3944</v>
+        <v>3943</v>
       </c>
       <c r="B47" s="3" t="s">
         <v>938</v>
@@ -14860,7 +14865,7 @@
     </row>
     <row r="48" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A48" s="3" t="s">
-        <v>4002</v>
+        <v>4001</v>
       </c>
       <c r="B48" s="3" t="s">
         <v>449</v>
@@ -15230,13 +15235,13 @@
     </row>
     <row r="56" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A56" s="3" t="s">
-        <v>4003</v>
+        <v>4002</v>
       </c>
       <c r="B56" s="3" t="s">
         <v>318</v>
       </c>
       <c r="C56" s="3" t="s">
-        <v>4004</v>
+        <v>4003</v>
       </c>
       <c r="D56" s="3" t="s">
         <v>1412</v>
@@ -15278,7 +15283,7 @@
     </row>
     <row r="57" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A57" s="3" t="s">
-        <v>3975</v>
+        <v>3974</v>
       </c>
       <c r="B57" s="3" t="s">
         <v>1606</v>
@@ -15416,7 +15421,7 @@
     </row>
     <row r="60" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A60" s="3" t="s">
-        <v>4005</v>
+        <v>4004</v>
       </c>
       <c r="B60" s="3" t="s">
         <v>510</v>
@@ -15554,16 +15559,16 @@
     </row>
     <row r="63" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A63" s="6" t="s">
-        <v>4029</v>
+        <v>4028</v>
       </c>
       <c r="B63" s="6" t="s">
-        <v>3976</v>
+        <v>3975</v>
       </c>
       <c r="C63" s="6" t="s">
         <v>2423</v>
       </c>
       <c r="D63" s="6" t="s">
-        <v>4030</v>
+        <v>4029</v>
       </c>
       <c r="E63" s="7">
         <v>2016</v>
@@ -15581,13 +15586,13 @@
     </row>
     <row r="64" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A64" s="3" t="s">
-        <v>4006</v>
+        <v>4005</v>
       </c>
       <c r="B64" s="3" t="s">
         <v>2928</v>
       </c>
       <c r="C64" s="3" t="s">
-        <v>4007</v>
+        <v>4006</v>
       </c>
       <c r="D64" s="3" t="s">
         <v>1902</v>
@@ -15767,14 +15772,14 @@
     </row>
     <row r="68" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A68" s="6" t="s">
-        <v>3978</v>
+        <v>3977</v>
       </c>
       <c r="B68" s="6" t="s">
         <v>220</v>
       </c>
       <c r="C68" s="6"/>
       <c r="D68" s="6" t="s">
-        <v>3979</v>
+        <v>3978</v>
       </c>
       <c r="E68" s="7">
         <v>1993</v>
@@ -15838,7 +15843,7 @@
     </row>
     <row r="70" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A70" s="3" t="s">
-        <v>3977</v>
+        <v>3976</v>
       </c>
       <c r="B70" s="3" t="s">
         <v>3000</v>
@@ -16007,13 +16012,13 @@
     </row>
     <row r="74" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A74" s="3" t="s">
-        <v>3996</v>
+        <v>3995</v>
       </c>
       <c r="B74" s="3" t="s">
         <v>675</v>
       </c>
       <c r="C74" s="3" t="s">
-        <v>3997</v>
+        <v>3996</v>
       </c>
       <c r="D74" s="3" t="s">
         <v>676</v>
@@ -17525,13 +17530,13 @@
     </row>
     <row r="107" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A107" s="3" t="s">
-        <v>3990</v>
+        <v>3989</v>
       </c>
       <c r="B107" s="3" t="s">
         <v>1606</v>
       </c>
       <c r="C107" s="3" t="s">
-        <v>3991</v>
+        <v>3990</v>
       </c>
       <c r="D107" s="3" t="s">
         <v>139</v>
@@ -17619,7 +17624,7 @@
     </row>
     <row r="109" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A109" s="3" t="s">
-        <v>3980</v>
+        <v>3979</v>
       </c>
       <c r="B109" s="3" t="s">
         <v>1874</v>
@@ -17667,13 +17672,13 @@
     </row>
     <row r="110" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A110" s="3" t="s">
-        <v>3998</v>
+        <v>3997</v>
       </c>
       <c r="B110" s="3" t="s">
         <v>350</v>
       </c>
       <c r="C110" s="3" t="s">
-        <v>3999</v>
+        <v>3998</v>
       </c>
       <c r="D110" s="3" t="s">
         <v>139</v>
@@ -17761,7 +17766,7 @@
     </row>
     <row r="112" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A112" s="3" t="s">
-        <v>3796</v>
+        <v>3795</v>
       </c>
       <c r="B112" s="3" t="s">
         <v>2254</v>
@@ -17991,7 +17996,7 @@
     </row>
     <row r="117" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A117" s="3" t="s">
-        <v>3797</v>
+        <v>3796</v>
       </c>
       <c r="B117" s="3" t="s">
         <v>318</v>
@@ -18040,7 +18045,7 @@
         <v>3220</v>
       </c>
       <c r="B118" s="3" t="s">
-        <v>3798</v>
+        <v>3797</v>
       </c>
       <c r="C118" s="3"/>
       <c r="D118" s="3" t="s">
@@ -18353,13 +18358,13 @@
     </row>
     <row r="125" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A125" s="3" t="s">
-        <v>3799</v>
+        <v>3798</v>
       </c>
       <c r="B125" s="3" t="s">
         <v>2441</v>
       </c>
       <c r="C125" s="3" t="s">
-        <v>3800</v>
+        <v>3799</v>
       </c>
       <c r="D125" s="3" t="s">
         <v>2442</v>
@@ -18679,7 +18684,7 @@
     </row>
     <row r="132" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A132" s="3" t="s">
-        <v>3748</v>
+        <v>3747</v>
       </c>
       <c r="B132" s="3" t="s">
         <v>2100</v>
@@ -18688,7 +18693,7 @@
         <v>3069</v>
       </c>
       <c r="D132" s="3" t="s">
-        <v>3749</v>
+        <v>3748</v>
       </c>
       <c r="E132" s="3" t="s">
         <v>154</v>
@@ -18959,7 +18964,7 @@
     </row>
     <row r="138" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A138" s="3" t="s">
-        <v>3803</v>
+        <v>3802</v>
       </c>
       <c r="B138" s="3" t="s">
         <v>474</v>
@@ -19005,13 +19010,13 @@
     </row>
     <row r="139" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A139" s="3" t="s">
-        <v>3801</v>
+        <v>3800</v>
       </c>
       <c r="B139" s="3" t="s">
         <v>2050</v>
       </c>
       <c r="C139" s="3" t="s">
-        <v>3802</v>
+        <v>3801</v>
       </c>
       <c r="D139" s="3" t="s">
         <v>2783</v>
@@ -19099,16 +19104,16 @@
     </row>
     <row r="141" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A141" s="6" t="s">
-        <v>3936</v>
+        <v>3935</v>
       </c>
       <c r="B141" s="6" t="s">
         <v>1205</v>
       </c>
       <c r="C141" s="6" t="s">
+        <v>3936</v>
+      </c>
+      <c r="D141" s="6" t="s">
         <v>3937</v>
-      </c>
-      <c r="D141" s="6" t="s">
-        <v>3938</v>
       </c>
       <c r="E141" s="7">
         <v>2005</v>
@@ -19350,7 +19355,7 @@
     </row>
     <row r="147" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A147" s="3" t="s">
-        <v>3984</v>
+        <v>3983</v>
       </c>
       <c r="B147" s="3" t="s">
         <v>1284</v>
@@ -19359,7 +19364,7 @@
         <v>1285</v>
       </c>
       <c r="D147" s="3" t="s">
-        <v>3983</v>
+        <v>3982</v>
       </c>
       <c r="E147" s="3" t="s">
         <v>155</v>
@@ -19628,13 +19633,13 @@
     </row>
     <row r="153" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A153" s="3" t="s">
-        <v>3804</v>
+        <v>3803</v>
       </c>
       <c r="B153" s="3" t="s">
         <v>2391</v>
       </c>
       <c r="C153" s="3" t="s">
-        <v>3805</v>
+        <v>3804</v>
       </c>
       <c r="D153" s="3" t="s">
         <v>1872</v>
@@ -19676,13 +19681,13 @@
     </row>
     <row r="154" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A154" s="3" t="s">
-        <v>3807</v>
+        <v>3806</v>
       </c>
       <c r="B154" s="3" t="s">
         <v>106</v>
       </c>
       <c r="C154" s="3" t="s">
-        <v>3806</v>
+        <v>3805</v>
       </c>
       <c r="D154" s="3" t="s">
         <v>1242</v>
@@ -19816,7 +19821,7 @@
     </row>
     <row r="157" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A157" s="3" t="s">
-        <v>4016</v>
+        <v>4015</v>
       </c>
       <c r="B157" s="3" t="s">
         <v>579</v>
@@ -20186,7 +20191,7 @@
     </row>
     <row r="165" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A165" s="3" t="s">
-        <v>3808</v>
+        <v>3807</v>
       </c>
       <c r="B165" s="3" t="s">
         <v>628</v>
@@ -20349,7 +20354,7 @@
     </row>
     <row r="169" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A169" s="3" t="s">
-        <v>3809</v>
+        <v>3808</v>
       </c>
       <c r="B169" s="3" t="s">
         <v>200</v>
@@ -20441,7 +20446,7 @@
     </row>
     <row r="171" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A171" s="11" t="s">
-        <v>3958</v>
+        <v>3957</v>
       </c>
       <c r="B171" s="11" t="s">
         <v>2983</v>
@@ -20779,14 +20784,14 @@
     </row>
     <row r="179" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A179" s="6" t="s">
-        <v>3985</v>
+        <v>3984</v>
       </c>
       <c r="B179" s="6" t="s">
         <v>628</v>
       </c>
       <c r="C179" s="6"/>
       <c r="D179" s="6" t="s">
-        <v>3986</v>
+        <v>3985</v>
       </c>
       <c r="E179" s="7">
         <v>2009</v>
@@ -20902,7 +20907,7 @@
         <v>106</v>
       </c>
       <c r="C182" s="3" t="s">
-        <v>3915</v>
+        <v>3914</v>
       </c>
       <c r="D182" s="3" t="s">
         <v>880</v>
@@ -21224,16 +21229,16 @@
     </row>
     <row r="189" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A189" s="3" t="s">
-        <v>3790</v>
+        <v>3789</v>
       </c>
       <c r="B189" s="3" t="s">
         <v>489</v>
       </c>
       <c r="C189" s="3" t="s">
-        <v>3791</v>
+        <v>3790</v>
       </c>
       <c r="D189" s="3" t="s">
-        <v>3939</v>
+        <v>3938</v>
       </c>
       <c r="E189" s="3" t="s">
         <v>288</v>
@@ -21732,7 +21737,7 @@
     </row>
     <row r="200" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A200" s="3" t="s">
-        <v>3810</v>
+        <v>3809</v>
       </c>
       <c r="B200" s="3" t="s">
         <v>2045</v>
@@ -21824,13 +21829,13 @@
     </row>
     <row r="202" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A202" s="3" t="s">
-        <v>3811</v>
+        <v>3810</v>
       </c>
       <c r="B202" s="3" t="s">
         <v>106</v>
       </c>
       <c r="C202" s="3" t="s">
-        <v>3812</v>
+        <v>3811</v>
       </c>
       <c r="D202" s="3" t="s">
         <v>1501</v>
@@ -21872,13 +21877,13 @@
     </row>
     <row r="203" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A203" s="3" t="s">
-        <v>3813</v>
+        <v>3812</v>
       </c>
       <c r="B203" s="3" t="s">
         <v>530</v>
       </c>
       <c r="C203" s="3" t="s">
-        <v>3814</v>
+        <v>3813</v>
       </c>
       <c r="D203" s="3" t="s">
         <v>2040</v>
@@ -22012,13 +22017,13 @@
     </row>
     <row r="206" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A206" s="3" t="s">
-        <v>3815</v>
+        <v>3814</v>
       </c>
       <c r="B206" s="3" t="s">
         <v>319</v>
       </c>
       <c r="C206" s="3" t="s">
-        <v>3816</v>
+        <v>3815</v>
       </c>
       <c r="D206" s="3" t="s">
         <v>1649</v>
@@ -22137,7 +22142,7 @@
     </row>
     <row r="209" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A209" s="3" t="s">
-        <v>3824</v>
+        <v>3823</v>
       </c>
       <c r="B209" s="3" t="s">
         <v>840</v>
@@ -22183,7 +22188,7 @@
     </row>
     <row r="210" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A210" s="3" t="s">
-        <v>3825</v>
+        <v>3824</v>
       </c>
       <c r="B210" s="3" t="s">
         <v>290</v>
@@ -22321,7 +22326,7 @@
     </row>
     <row r="213" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A213" s="3" t="s">
-        <v>3987</v>
+        <v>3986</v>
       </c>
       <c r="B213" s="3" t="s">
         <v>290</v>
@@ -22459,13 +22464,13 @@
     </row>
     <row r="216" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A216" s="3" t="s">
-        <v>3826</v>
+        <v>3825</v>
       </c>
       <c r="B216" s="3" t="s">
         <v>298</v>
       </c>
       <c r="C216" s="3" t="s">
-        <v>3827</v>
+        <v>3826</v>
       </c>
       <c r="D216" s="3" t="s">
         <v>299</v>
@@ -22553,7 +22558,7 @@
     </row>
     <row r="218" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A218" s="3" t="s">
-        <v>3828</v>
+        <v>3827</v>
       </c>
       <c r="B218" s="3" t="s">
         <v>117</v>
@@ -22637,7 +22642,7 @@
     </row>
     <row r="220" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A220" s="3" t="s">
-        <v>3817</v>
+        <v>3816</v>
       </c>
       <c r="B220" s="3" t="s">
         <v>1124</v>
@@ -22683,13 +22688,13 @@
     </row>
     <row r="221" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A221" s="3" t="s">
-        <v>3818</v>
+        <v>3817</v>
       </c>
       <c r="B221" s="3" t="s">
         <v>1310</v>
       </c>
       <c r="C221" s="3" t="s">
-        <v>3819</v>
+        <v>3818</v>
       </c>
       <c r="D221" s="3" t="s">
         <v>1311</v>
@@ -22731,7 +22736,7 @@
     </row>
     <row r="222" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A222" s="3" t="s">
-        <v>3794</v>
+        <v>3793</v>
       </c>
       <c r="B222" s="3" t="s">
         <v>1966</v>
@@ -22744,7 +22749,7 @@
         <v>122</v>
       </c>
       <c r="F222" s="3" t="s">
-        <v>3935</v>
+        <v>3934</v>
       </c>
       <c r="G222" s="3" t="s">
         <v>25</v>
@@ -22955,7 +22960,7 @@
     </row>
     <row r="227" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A227" s="3" t="s">
-        <v>3924</v>
+        <v>3923</v>
       </c>
       <c r="B227" s="3" t="s">
         <v>243</v>
@@ -22964,7 +22969,7 @@
         <v>244</v>
       </c>
       <c r="D227" s="3" t="s">
-        <v>3925</v>
+        <v>3924</v>
       </c>
       <c r="E227" s="3" t="s">
         <v>11</v>
@@ -23003,13 +23008,13 @@
     </row>
     <row r="228" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A228" s="3" t="s">
-        <v>3792</v>
+        <v>3791</v>
       </c>
       <c r="B228" s="3" t="s">
         <v>106</v>
       </c>
       <c r="C228" s="3" t="s">
-        <v>3793</v>
+        <v>3792</v>
       </c>
       <c r="D228" s="3" t="s">
         <v>468</v>
@@ -23143,7 +23148,7 @@
     </row>
     <row r="231" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A231" s="3" t="s">
-        <v>3940</v>
+        <v>3939</v>
       </c>
       <c r="B231" s="3" t="s">
         <v>628</v>
@@ -23152,7 +23157,7 @@
         <v>2436</v>
       </c>
       <c r="D231" s="3" t="s">
-        <v>3941</v>
+        <v>3940</v>
       </c>
       <c r="E231" s="3" t="s">
         <v>37</v>
@@ -23191,7 +23196,7 @@
     </row>
     <row r="232" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A232" s="3" t="s">
-        <v>3821</v>
+        <v>3820</v>
       </c>
       <c r="B232" s="3" t="s">
         <v>642</v>
@@ -23237,13 +23242,13 @@
     </row>
     <row r="233" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A233" s="3" t="s">
-        <v>3788</v>
+        <v>3787</v>
       </c>
       <c r="B233" s="3" t="s">
         <v>106</v>
       </c>
       <c r="C233" s="3" t="s">
-        <v>3789</v>
+        <v>3788</v>
       </c>
       <c r="D233" s="3" t="s">
         <v>1230</v>
@@ -23333,7 +23338,7 @@
     </row>
     <row r="235" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A235" s="3" t="s">
-        <v>3787</v>
+        <v>3786</v>
       </c>
       <c r="B235" s="3" t="s">
         <v>220</v>
@@ -23379,7 +23384,7 @@
     </row>
     <row r="236" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A236" s="3" t="s">
-        <v>3820</v>
+        <v>3819</v>
       </c>
       <c r="B236" s="3" t="s">
         <v>377</v>
@@ -23471,13 +23476,13 @@
     </row>
     <row r="238" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A238" s="3" t="s">
-        <v>3785</v>
+        <v>3784</v>
       </c>
       <c r="B238" s="3" t="s">
         <v>726</v>
       </c>
       <c r="C238" s="3" t="s">
-        <v>3786</v>
+        <v>3785</v>
       </c>
       <c r="D238" s="3" t="s">
         <v>727</v>
@@ -23519,7 +23524,7 @@
     </row>
     <row r="239" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A239" s="3" t="s">
-        <v>3822</v>
+        <v>3821</v>
       </c>
       <c r="B239" s="3" t="s">
         <v>926</v>
@@ -23565,7 +23570,7 @@
     </row>
     <row r="240" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A240" s="3" t="s">
-        <v>3823</v>
+        <v>3822</v>
       </c>
       <c r="B240" s="3" t="s">
         <v>474</v>
@@ -23737,7 +23742,7 @@
     </row>
     <row r="244" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A244" s="3" t="s">
-        <v>3784</v>
+        <v>3783</v>
       </c>
       <c r="B244" s="3" t="s">
         <v>2371</v>
@@ -23783,7 +23788,7 @@
     </row>
     <row r="245" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A245" s="3" t="s">
-        <v>3783</v>
+        <v>3782</v>
       </c>
       <c r="B245" s="3" t="s">
         <v>387</v>
@@ -23875,7 +23880,7 @@
     </row>
     <row r="247" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A247" s="6" t="s">
-        <v>3988</v>
+        <v>3987</v>
       </c>
       <c r="B247" s="6" t="s">
         <v>1017</v>
@@ -24007,7 +24012,7 @@
         <v>2020</v>
       </c>
       <c r="F250" s="6" t="s">
-        <v>3935</v>
+        <v>3934</v>
       </c>
       <c r="G250" s="6" t="s">
         <v>25</v>
@@ -24032,7 +24037,7 @@
     </row>
     <row r="251" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A251" s="3" t="s">
-        <v>3780</v>
+        <v>3779</v>
       </c>
       <c r="B251" s="3" t="s">
         <v>989</v>
@@ -24078,13 +24083,13 @@
     </row>
     <row r="252" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A252" s="3" t="s">
-        <v>3781</v>
+        <v>3780</v>
       </c>
       <c r="B252" s="3" t="s">
         <v>486</v>
       </c>
       <c r="C252" s="3" t="s">
-        <v>3782</v>
+        <v>3781</v>
       </c>
       <c r="D252" s="3" t="s">
         <v>2906</v>
@@ -24396,7 +24401,7 @@
     </row>
     <row r="259" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A259" s="3" t="s">
-        <v>3967</v>
+        <v>3966</v>
       </c>
       <c r="B259" s="3" t="s">
         <v>628</v>
@@ -24580,14 +24585,14 @@
     </row>
     <row r="263" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A263" s="6" t="s">
-        <v>3926</v>
+        <v>3925</v>
       </c>
       <c r="B263" s="6" t="s">
         <v>84</v>
       </c>
       <c r="C263" s="6"/>
       <c r="D263" s="6" t="s">
-        <v>3927</v>
+        <v>3926</v>
       </c>
       <c r="E263" s="7">
         <v>2011</v>
@@ -25115,13 +25120,13 @@
     </row>
     <row r="275" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A275" s="3" t="s">
-        <v>3776</v>
+        <v>3775</v>
       </c>
       <c r="B275" s="3" t="s">
         <v>938</v>
       </c>
       <c r="C275" s="3" t="s">
-        <v>3777</v>
+        <v>3776</v>
       </c>
       <c r="D275" s="3" t="s">
         <v>2147</v>
@@ -25257,7 +25262,7 @@
     </row>
     <row r="278" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A278" s="3" t="s">
-        <v>3775</v>
+        <v>3774</v>
       </c>
       <c r="B278" s="3" t="s">
         <v>637</v>
@@ -25343,13 +25348,13 @@
     </row>
     <row r="280" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A280" s="3" t="s">
-        <v>3773</v>
+        <v>3772</v>
       </c>
       <c r="B280" s="3" t="s">
         <v>497</v>
       </c>
       <c r="C280" s="3" t="s">
-        <v>3774</v>
+        <v>3773</v>
       </c>
       <c r="D280" s="3" t="s">
         <v>1976</v>
@@ -25437,7 +25442,7 @@
     </row>
     <row r="282" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A282" s="3" t="s">
-        <v>3829</v>
+        <v>3828</v>
       </c>
       <c r="B282" s="3" t="s">
         <v>2234</v>
@@ -25483,13 +25488,13 @@
     </row>
     <row r="283" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A283" s="3" t="s">
-        <v>3771</v>
+        <v>3770</v>
       </c>
       <c r="B283" s="3" t="s">
         <v>106</v>
       </c>
       <c r="C283" s="3" t="s">
-        <v>3772</v>
+        <v>3771</v>
       </c>
       <c r="D283" s="3" t="s">
         <v>47</v>
@@ -25763,13 +25768,13 @@
     </row>
     <row r="289" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A289" s="3" t="s">
-        <v>3769</v>
+        <v>3768</v>
       </c>
       <c r="B289" s="3" t="s">
         <v>109</v>
       </c>
       <c r="C289" s="3" t="s">
-        <v>3770</v>
+        <v>3769</v>
       </c>
       <c r="D289" s="3" t="s">
         <v>110</v>
@@ -25857,16 +25862,16 @@
     </row>
     <row r="291" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A291" s="6" t="s">
-        <v>3945</v>
+        <v>3944</v>
       </c>
       <c r="B291" s="6" t="s">
         <v>938</v>
       </c>
       <c r="C291" s="6" t="s">
-        <v>3946</v>
+        <v>3945</v>
       </c>
       <c r="D291" s="6" t="s">
-        <v>3946</v>
+        <v>3945</v>
       </c>
       <c r="E291" s="7">
         <v>2006</v>
@@ -25968,13 +25973,13 @@
     </row>
     <row r="294" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A294" s="3" t="s">
-        <v>3767</v>
+        <v>3766</v>
       </c>
       <c r="B294" s="3" t="s">
         <v>377</v>
       </c>
       <c r="C294" s="3" t="s">
-        <v>3768</v>
+        <v>3767</v>
       </c>
       <c r="D294" s="3" t="s">
         <v>2499</v>
@@ -26016,13 +26021,13 @@
     </row>
     <row r="295" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A295" s="3" t="s">
-        <v>3765</v>
+        <v>3764</v>
       </c>
       <c r="B295" s="3" t="s">
         <v>106</v>
       </c>
       <c r="C295" s="3" t="s">
-        <v>3766</v>
+        <v>3765</v>
       </c>
       <c r="D295" s="3" t="s">
         <v>1793</v>
@@ -26104,7 +26109,7 @@
     </row>
     <row r="297" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A297" s="3" t="s">
-        <v>3764</v>
+        <v>3763</v>
       </c>
       <c r="B297" s="3" t="s">
         <v>563</v>
@@ -26150,7 +26155,7 @@
     </row>
     <row r="298" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A298" s="3" t="s">
-        <v>3763</v>
+        <v>3762</v>
       </c>
       <c r="B298" s="3" t="s">
         <v>264</v>
@@ -26196,7 +26201,7 @@
     </row>
     <row r="299" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A299" s="6" t="s">
-        <v>3992</v>
+        <v>3991</v>
       </c>
       <c r="B299" s="6" t="s">
         <v>938</v>
@@ -26205,7 +26210,7 @@
         <v>430</v>
       </c>
       <c r="D299" s="6" t="s">
-        <v>3993</v>
+        <v>3992</v>
       </c>
       <c r="E299" s="7">
         <v>2012</v>
@@ -26223,7 +26228,7 @@
     </row>
     <row r="300" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A300" s="3" t="s">
-        <v>3762</v>
+        <v>3761</v>
       </c>
       <c r="B300" s="3" t="s">
         <v>105</v>
@@ -26269,7 +26274,7 @@
     </row>
     <row r="301" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A301" s="3" t="s">
-        <v>3761</v>
+        <v>3760</v>
       </c>
       <c r="B301" s="3" t="s">
         <v>875</v>
@@ -26315,7 +26320,7 @@
     </row>
     <row r="302" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A302" s="3" t="s">
-        <v>3758</v>
+        <v>3757</v>
       </c>
       <c r="B302" s="3" t="s">
         <v>658</v>
@@ -26361,7 +26366,7 @@
     </row>
     <row r="303" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A303" s="3" t="s">
-        <v>3759</v>
+        <v>3758</v>
       </c>
       <c r="B303" s="3" t="s">
         <v>1946</v>
@@ -26407,7 +26412,7 @@
     </row>
     <row r="304" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A304" s="3" t="s">
-        <v>3760</v>
+        <v>3759</v>
       </c>
       <c r="B304" s="3" t="s">
         <v>698</v>
@@ -26499,13 +26504,13 @@
     </row>
     <row r="306" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A306" s="3" t="s">
-        <v>3756</v>
+        <v>3755</v>
       </c>
       <c r="B306" s="3" t="s">
         <v>780</v>
       </c>
       <c r="C306" s="3" t="s">
-        <v>3757</v>
+        <v>3756</v>
       </c>
       <c r="D306" s="3" t="s">
         <v>160</v>
@@ -26547,10 +26552,10 @@
     </row>
     <row r="307" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A307" s="3" t="s">
+        <v>3753</v>
+      </c>
+      <c r="B307" s="3" t="s">
         <v>3754</v>
-      </c>
-      <c r="B307" s="3" t="s">
-        <v>3755</v>
       </c>
       <c r="C307" s="3"/>
       <c r="D307" s="3" t="s">
@@ -26593,13 +26598,13 @@
     </row>
     <row r="308" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A308" s="3" t="s">
-        <v>3752</v>
+        <v>3751</v>
       </c>
       <c r="B308" s="3" t="s">
         <v>2869</v>
       </c>
       <c r="C308" s="3" t="s">
-        <v>3753</v>
+        <v>3752</v>
       </c>
       <c r="D308" s="3" t="s">
         <v>1953</v>
@@ -26641,7 +26646,7 @@
     </row>
     <row r="309" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A309" s="3" t="s">
-        <v>3751</v>
+        <v>3750</v>
       </c>
       <c r="B309" s="3" t="s">
         <v>3039</v>
@@ -26721,13 +26726,13 @@
     </row>
     <row r="311" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A311" s="3" t="s">
-        <v>3837</v>
+        <v>3836</v>
       </c>
       <c r="B311" s="3" t="s">
         <v>1931</v>
       </c>
       <c r="C311" s="3" t="s">
-        <v>3838</v>
+        <v>3837</v>
       </c>
       <c r="D311" s="3" t="s">
         <v>1932</v>
@@ -26815,13 +26820,13 @@
     </row>
     <row r="313" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A313" s="3" t="s">
-        <v>3835</v>
+        <v>3834</v>
       </c>
       <c r="B313" s="3" t="s">
         <v>565</v>
       </c>
       <c r="C313" s="3" t="s">
-        <v>3836</v>
+        <v>3835</v>
       </c>
       <c r="D313" s="3" t="s">
         <v>430</v>
@@ -26909,7 +26914,7 @@
     </row>
     <row r="315" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A315" s="3" t="s">
-        <v>3830</v>
+        <v>3829</v>
       </c>
       <c r="B315" s="3" t="s">
         <v>198</v>
@@ -26955,13 +26960,13 @@
     </row>
     <row r="316" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A316" s="3" t="s">
-        <v>3833</v>
+        <v>3832</v>
       </c>
       <c r="B316" s="3" t="s">
         <v>1041</v>
       </c>
       <c r="C316" s="3" t="s">
-        <v>3834</v>
+        <v>3833</v>
       </c>
       <c r="D316" s="3" t="s">
         <v>430</v>
@@ -27049,13 +27054,13 @@
     </row>
     <row r="318" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A318" s="3" t="s">
-        <v>3831</v>
+        <v>3830</v>
       </c>
       <c r="B318" s="3" t="s">
         <v>2635</v>
       </c>
       <c r="C318" s="3" t="s">
-        <v>3832</v>
+        <v>3831</v>
       </c>
       <c r="D318" s="3" t="s">
         <v>1213</v>
@@ -27143,13 +27148,13 @@
     </row>
     <row r="320" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A320" s="3" t="s">
-        <v>3839</v>
+        <v>3838</v>
       </c>
       <c r="B320" s="3" t="s">
         <v>276</v>
       </c>
       <c r="C320" s="3" t="s">
-        <v>3840</v>
+        <v>3839</v>
       </c>
       <c r="D320" s="3" t="s">
         <v>711</v>
@@ -27237,13 +27242,13 @@
     </row>
     <row r="322" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A322" s="3" t="s">
-        <v>3841</v>
+        <v>3840</v>
       </c>
       <c r="B322" s="3" t="s">
         <v>790</v>
       </c>
       <c r="C322" s="3" t="s">
-        <v>3842</v>
+        <v>3841</v>
       </c>
       <c r="D322" s="3" t="s">
         <v>1052</v>
@@ -27377,13 +27382,13 @@
     </row>
     <row r="325" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A325" s="3" t="s">
-        <v>3843</v>
+        <v>3842</v>
       </c>
       <c r="B325" s="3" t="s">
         <v>1159</v>
       </c>
       <c r="C325" s="3" t="s">
-        <v>3844</v>
+        <v>3843</v>
       </c>
       <c r="D325" s="3" t="s">
         <v>1718</v>
@@ -27473,7 +27478,7 @@
     </row>
     <row r="327" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A327" s="3" t="s">
-        <v>3845</v>
+        <v>3844</v>
       </c>
       <c r="B327" s="3" t="s">
         <v>105</v>
@@ -27565,16 +27570,16 @@
     </row>
     <row r="329" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A329" s="6" t="s">
-        <v>3961</v>
+        <v>3960</v>
       </c>
       <c r="B329" s="6" t="s">
         <v>748</v>
       </c>
       <c r="C329" s="6" t="s">
-        <v>3962</v>
+        <v>3961</v>
       </c>
       <c r="D329" s="6" t="s">
-        <v>3962</v>
+        <v>3961</v>
       </c>
       <c r="E329" s="7">
         <v>2006</v>
@@ -27795,7 +27800,7 @@
     </row>
     <row r="335" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A335" s="3" t="s">
-        <v>3928</v>
+        <v>3927</v>
       </c>
       <c r="B335" s="3" t="s">
         <v>449</v>
@@ -27979,13 +27984,13 @@
     </row>
     <row r="339" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A339" s="3" t="s">
-        <v>3848</v>
+        <v>3847</v>
       </c>
       <c r="B339" s="3" t="s">
         <v>105</v>
       </c>
       <c r="C339" s="3" t="s">
-        <v>3849</v>
+        <v>3848</v>
       </c>
       <c r="D339" s="3" t="s">
         <v>484</v>
@@ -28119,13 +28124,13 @@
     </row>
     <row r="342" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A342" s="3" t="s">
-        <v>3846</v>
+        <v>3845</v>
       </c>
       <c r="B342" s="3" t="s">
         <v>200</v>
       </c>
       <c r="C342" s="3" t="s">
-        <v>3847</v>
+        <v>3846</v>
       </c>
       <c r="D342" s="3" t="s">
         <v>1296</v>
@@ -28309,7 +28314,7 @@
     </row>
     <row r="346" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A346" s="3" t="s">
-        <v>3850</v>
+        <v>3849</v>
       </c>
       <c r="B346" s="3" t="s">
         <v>238</v>
@@ -28355,7 +28360,7 @@
     </row>
     <row r="347" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A347" s="3" t="s">
-        <v>3851</v>
+        <v>3850</v>
       </c>
       <c r="B347" s="3" t="s">
         <v>1684</v>
@@ -28575,13 +28580,13 @@
     </row>
     <row r="352" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A352" s="3" t="s">
-        <v>3852</v>
+        <v>3851</v>
       </c>
       <c r="B352" s="3" t="s">
         <v>106</v>
       </c>
       <c r="C352" s="3" t="s">
-        <v>3853</v>
+        <v>3852</v>
       </c>
       <c r="D352" s="3" t="s">
         <v>1831</v>
@@ -28763,7 +28768,7 @@
     </row>
     <row r="356" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A356" s="3" t="s">
-        <v>3855</v>
+        <v>3854</v>
       </c>
       <c r="B356" s="3" t="s">
         <v>1166</v>
@@ -28809,7 +28814,7 @@
     </row>
     <row r="357" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A357" s="3" t="s">
-        <v>3854</v>
+        <v>3853</v>
       </c>
       <c r="B357" s="3" t="s">
         <v>84</v>
@@ -28901,7 +28906,7 @@
     </row>
     <row r="359" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A359" s="3" t="s">
-        <v>3856</v>
+        <v>3855</v>
       </c>
       <c r="B359" s="3" t="s">
         <v>383</v>
@@ -29131,14 +29136,14 @@
     </row>
     <row r="364" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A364" s="6" t="s">
-        <v>4032</v>
+        <v>4031</v>
       </c>
       <c r="B364" s="6" t="s">
-        <v>4031</v>
+        <v>4030</v>
       </c>
       <c r="C364" s="6"/>
       <c r="D364" s="6" t="s">
-        <v>4033</v>
+        <v>4032</v>
       </c>
       <c r="E364" s="7">
         <v>1976</v>
@@ -29156,13 +29161,13 @@
     </row>
     <row r="365" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A365" s="3" t="s">
-        <v>3857</v>
+        <v>3856</v>
       </c>
       <c r="B365" s="3" t="s">
         <v>1648</v>
       </c>
       <c r="C365" s="3" t="s">
-        <v>3858</v>
+        <v>3857</v>
       </c>
       <c r="D365" s="3" t="s">
         <v>1804</v>
@@ -29526,13 +29531,13 @@
     </row>
     <row r="373" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A373" s="3" t="s">
-        <v>3859</v>
+        <v>3858</v>
       </c>
       <c r="B373" s="3" t="s">
         <v>318</v>
       </c>
       <c r="C373" s="3" t="s">
-        <v>3860</v>
+        <v>3859</v>
       </c>
       <c r="D373" s="3" t="s">
         <v>2728</v>
@@ -29850,14 +29855,14 @@
     </row>
     <row r="380" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A380" s="3" t="s">
-        <v>3911</v>
+        <v>3910</v>
       </c>
       <c r="B380" s="3" t="s">
         <v>3036</v>
       </c>
       <c r="C380" s="3"/>
       <c r="D380" s="3" t="s">
-        <v>3912</v>
+        <v>3911</v>
       </c>
       <c r="E380" s="3" t="s">
         <v>61</v>
@@ -30034,16 +30039,16 @@
     </row>
     <row r="384" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A384" s="3" t="s">
-        <v>3963</v>
+        <v>3962</v>
       </c>
       <c r="B384" s="3" t="s">
         <v>497</v>
       </c>
       <c r="C384" s="3" t="s">
-        <v>3964</v>
+        <v>3963</v>
       </c>
       <c r="D384" s="3" t="s">
-        <v>3964</v>
+        <v>3963</v>
       </c>
       <c r="E384" s="3" t="s">
         <v>68</v>
@@ -30488,16 +30493,16 @@
     </row>
     <row r="394" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A394" s="6" t="s">
+        <v>3946</v>
+      </c>
+      <c r="B394" s="6" t="s">
         <v>3947</v>
       </c>
-      <c r="B394" s="6" t="s">
+      <c r="C394" s="6" t="s">
         <v>3948</v>
       </c>
-      <c r="C394" s="6" t="s">
-        <v>3949</v>
-      </c>
       <c r="D394" s="6" t="s">
-        <v>3949</v>
+        <v>3948</v>
       </c>
       <c r="E394" s="7">
         <v>2010</v>
@@ -31075,7 +31080,7 @@
     </row>
     <row r="407" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A407" s="3" t="s">
-        <v>3865</v>
+        <v>3864</v>
       </c>
       <c r="B407" s="3" t="s">
         <v>331</v>
@@ -31121,7 +31126,7 @@
     </row>
     <row r="408" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A408" s="3" t="s">
-        <v>3864</v>
+        <v>3863</v>
       </c>
       <c r="B408" s="3" t="s">
         <v>2962</v>
@@ -31167,7 +31172,7 @@
     </row>
     <row r="409" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A409" s="6" t="s">
-        <v>4036</v>
+        <v>4035</v>
       </c>
       <c r="B409" s="6" t="s">
         <v>1796</v>
@@ -31189,7 +31194,7 @@
       </c>
       <c r="H409" s="6"/>
       <c r="I409" s="8" t="s">
-        <v>4037</v>
+        <v>4036</v>
       </c>
       <c r="J409" s="7"/>
       <c r="K409" s="7"/>
@@ -31253,13 +31258,13 @@
     </row>
     <row r="411" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A411" s="3" t="s">
-        <v>3862</v>
+        <v>3861</v>
       </c>
       <c r="B411" s="3" t="s">
         <v>370</v>
       </c>
       <c r="C411" s="3" t="s">
-        <v>3863</v>
+        <v>3862</v>
       </c>
       <c r="D411" s="3" t="s">
         <v>2629</v>
@@ -31301,7 +31306,7 @@
     </row>
     <row r="412" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A412" s="3" t="s">
-        <v>3950</v>
+        <v>3949</v>
       </c>
       <c r="B412" s="3" t="s">
         <v>1334</v>
@@ -31310,7 +31315,7 @@
         <v>1213</v>
       </c>
       <c r="D412" s="3" t="s">
-        <v>3951</v>
+        <v>3950</v>
       </c>
       <c r="E412" s="3" t="s">
         <v>135</v>
@@ -31349,13 +31354,13 @@
     </row>
     <row r="413" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A413" s="3" t="s">
-        <v>3866</v>
+        <v>3865</v>
       </c>
       <c r="B413" s="3" t="s">
         <v>383</v>
       </c>
       <c r="C413" s="3" t="s">
-        <v>3867</v>
+        <v>3866</v>
       </c>
       <c r="D413" s="3" t="s">
         <v>1782</v>
@@ -31397,7 +31402,7 @@
     </row>
     <row r="414" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A414" s="3" t="s">
-        <v>3861</v>
+        <v>3860</v>
       </c>
       <c r="B414" s="3" t="s">
         <v>105</v>
@@ -32047,16 +32052,16 @@
     </row>
     <row r="428" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A428" s="6" t="s">
-        <v>3929</v>
+        <v>3928</v>
       </c>
       <c r="B428" s="6" t="s">
         <v>1185</v>
       </c>
       <c r="C428" s="6" t="s">
-        <v>3931</v>
+        <v>3930</v>
       </c>
       <c r="D428" s="6" t="s">
-        <v>3930</v>
+        <v>3929</v>
       </c>
       <c r="E428" s="7">
         <v>2015</v>
@@ -32442,14 +32447,14 @@
     </row>
     <row r="437" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A437" s="6" t="s">
-        <v>3970</v>
+        <v>3969</v>
       </c>
       <c r="B437" s="6" t="s">
         <v>1648</v>
       </c>
       <c r="C437" s="6"/>
       <c r="D437" s="6" t="s">
-        <v>3971</v>
+        <v>3970</v>
       </c>
       <c r="E437" s="7">
         <v>1994</v>
@@ -32467,13 +32472,13 @@
     </row>
     <row r="438" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A438" s="3" t="s">
-        <v>3868</v>
+        <v>3867</v>
       </c>
       <c r="B438" s="3" t="s">
         <v>366</v>
       </c>
       <c r="C438" s="3" t="s">
-        <v>3869</v>
+        <v>3868</v>
       </c>
       <c r="D438" s="3" t="s">
         <v>1064</v>
@@ -32515,7 +32520,7 @@
     </row>
     <row r="439" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A439" s="3" t="s">
-        <v>3870</v>
+        <v>3869</v>
       </c>
       <c r="B439" s="3" t="s">
         <v>479</v>
@@ -32655,7 +32660,7 @@
     </row>
     <row r="442" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A442" s="3" t="s">
-        <v>3871</v>
+        <v>3870</v>
       </c>
       <c r="B442" s="3" t="s">
         <v>989</v>
@@ -32747,13 +32752,13 @@
     </row>
     <row r="444" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A444" s="3" t="s">
-        <v>3872</v>
+        <v>3871</v>
       </c>
       <c r="B444" s="3" t="s">
         <v>383</v>
       </c>
       <c r="C444" s="3" t="s">
-        <v>3873</v>
+        <v>3872</v>
       </c>
       <c r="D444" s="3" t="s">
         <v>608</v>
@@ -32841,7 +32846,7 @@
     </row>
     <row r="446" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A446" s="3" t="s">
-        <v>3875</v>
+        <v>3874</v>
       </c>
       <c r="B446" s="3" t="s">
         <v>1762</v>
@@ -32887,7 +32892,7 @@
     </row>
     <row r="447" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A447" s="3" t="s">
-        <v>3874</v>
+        <v>3873</v>
       </c>
       <c r="B447" s="3" t="s">
         <v>474</v>
@@ -32935,7 +32940,7 @@
     </row>
     <row r="448" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A448" s="3" t="s">
-        <v>3876</v>
+        <v>3875</v>
       </c>
       <c r="B448" s="3" t="s">
         <v>1550</v>
@@ -33015,7 +33020,7 @@
     </row>
     <row r="450" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A450" s="3" t="s">
-        <v>3877</v>
+        <v>3876</v>
       </c>
       <c r="B450" s="3" t="s">
         <v>652</v>
@@ -33061,7 +33066,7 @@
     </row>
     <row r="451" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A451" s="3" t="s">
-        <v>3878</v>
+        <v>3877</v>
       </c>
       <c r="B451" s="3" t="s">
         <v>2952</v>
@@ -33107,7 +33112,7 @@
     </row>
     <row r="452" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A452" s="3" t="s">
-        <v>3879</v>
+        <v>3878</v>
       </c>
       <c r="B452" s="3" t="s">
         <v>1415</v>
@@ -33153,7 +33158,7 @@
     </row>
     <row r="453" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A453" s="3" t="s">
-        <v>3880</v>
+        <v>3879</v>
       </c>
       <c r="B453" s="3" t="s">
         <v>2335</v>
@@ -33199,7 +33204,7 @@
     </row>
     <row r="454" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A454" s="3" t="s">
-        <v>3881</v>
+        <v>3880</v>
       </c>
       <c r="B454" s="3" t="s">
         <v>579</v>
@@ -33245,7 +33250,7 @@
     </row>
     <row r="455" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A455" s="3" t="s">
-        <v>3882</v>
+        <v>3881</v>
       </c>
       <c r="B455" s="3" t="s">
         <v>2270</v>
@@ -33291,7 +33296,7 @@
     </row>
     <row r="456" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A456" s="3" t="s">
-        <v>3883</v>
+        <v>3882</v>
       </c>
       <c r="B456" s="3" t="s">
         <v>318</v>
@@ -33477,13 +33482,13 @@
     </row>
     <row r="460" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A460" s="3" t="s">
-        <v>3884</v>
+        <v>3883</v>
       </c>
       <c r="B460" s="3" t="s">
         <v>563</v>
       </c>
       <c r="C460" s="3" t="s">
-        <v>3885</v>
+        <v>3884</v>
       </c>
       <c r="D460" s="3" t="s">
         <v>774</v>
@@ -33525,13 +33530,13 @@
     </row>
     <row r="461" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A461" s="3" t="s">
-        <v>3778</v>
+        <v>3777</v>
       </c>
       <c r="B461" s="3" t="s">
         <v>524</v>
       </c>
       <c r="C461" s="3" t="s">
-        <v>3779</v>
+        <v>3778</v>
       </c>
       <c r="D461" s="3" t="s">
         <v>531</v>
@@ -33573,7 +33578,7 @@
     </row>
     <row r="462" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A462" s="3" t="s">
-        <v>3886</v>
+        <v>3885</v>
       </c>
       <c r="B462" s="3" t="s">
         <v>2860</v>
@@ -33619,13 +33624,13 @@
     </row>
     <row r="463" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A463" s="3" t="s">
-        <v>3887</v>
+        <v>3886</v>
       </c>
       <c r="B463" s="3" t="s">
         <v>319</v>
       </c>
       <c r="C463" s="3" t="s">
-        <v>3888</v>
+        <v>3887</v>
       </c>
       <c r="D463" s="3" t="s">
         <v>531</v>
@@ -33897,13 +33902,13 @@
     </row>
     <row r="469" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A469" s="3" t="s">
-        <v>3891</v>
+        <v>3890</v>
       </c>
       <c r="B469" s="3" t="s">
         <v>264</v>
       </c>
       <c r="C469" s="3" t="s">
-        <v>3892</v>
+        <v>3891</v>
       </c>
       <c r="D469" s="3" t="s">
         <v>257</v>
@@ -33991,13 +33996,13 @@
     </row>
     <row r="471" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A471" s="3" t="s">
-        <v>3889</v>
+        <v>3888</v>
       </c>
       <c r="B471" s="3" t="s">
         <v>479</v>
       </c>
       <c r="C471" s="3" t="s">
-        <v>3890</v>
+        <v>3889</v>
       </c>
       <c r="D471" s="3" t="s">
         <v>515</v>
@@ -34085,7 +34090,7 @@
     </row>
     <row r="473" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A473" s="3" t="s">
-        <v>3893</v>
+        <v>3892</v>
       </c>
       <c r="B473" s="3" t="s">
         <v>524</v>
@@ -34225,7 +34230,7 @@
     </row>
     <row r="476" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A476" s="3" t="s">
-        <v>3894</v>
+        <v>3893</v>
       </c>
       <c r="B476" s="3" t="s">
         <v>1185</v>
@@ -34271,7 +34276,7 @@
     </row>
     <row r="477" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A477" s="3" t="s">
-        <v>3895</v>
+        <v>3894</v>
       </c>
       <c r="B477" s="3" t="s">
         <v>897</v>
@@ -34363,7 +34368,7 @@
     </row>
     <row r="479" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A479" s="3" t="s">
-        <v>3896</v>
+        <v>3895</v>
       </c>
       <c r="B479" s="3" t="s">
         <v>1602</v>
@@ -34409,7 +34414,7 @@
     </row>
     <row r="480" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A480" s="3" t="s">
-        <v>3897</v>
+        <v>3896</v>
       </c>
       <c r="B480" s="3" t="s">
         <v>383</v>
@@ -34455,7 +34460,7 @@
     </row>
     <row r="481" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A481" s="3" t="s">
-        <v>3898</v>
+        <v>3897</v>
       </c>
       <c r="B481" s="3" t="s">
         <v>510</v>
@@ -34547,7 +34552,7 @@
     </row>
     <row r="483" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A483" s="3" t="s">
-        <v>3900</v>
+        <v>3899</v>
       </c>
       <c r="B483" s="3" t="s">
         <v>105</v>
@@ -34639,14 +34644,14 @@
     </row>
     <row r="485" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A485" s="6" t="s">
+        <v>3971</v>
+      </c>
+      <c r="B485" s="6" t="s">
         <v>3972</v>
-      </c>
-      <c r="B485" s="6" t="s">
-        <v>3973</v>
       </c>
       <c r="C485" s="6"/>
       <c r="D485" s="6" t="s">
-        <v>3974</v>
+        <v>3973</v>
       </c>
       <c r="E485" s="7">
         <v>1998</v>
@@ -34710,10 +34715,10 @@
     </row>
     <row r="487" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A487" s="18" t="s">
+        <v>3915</v>
+      </c>
+      <c r="B487" s="18" t="s">
         <v>3916</v>
-      </c>
-      <c r="B487" s="18" t="s">
-        <v>3917</v>
       </c>
       <c r="C487" s="11"/>
       <c r="D487" s="18" t="s">
@@ -34781,7 +34786,7 @@
     </row>
     <row r="489" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A489" s="3" t="s">
-        <v>3899</v>
+        <v>3898</v>
       </c>
       <c r="B489" s="3" t="s">
         <v>1386</v>
@@ -34873,13 +34878,13 @@
     </row>
     <row r="491" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A491" s="3" t="s">
-        <v>3959</v>
+        <v>3958</v>
       </c>
       <c r="B491" s="3" t="s">
         <v>243</v>
       </c>
       <c r="C491" s="3" t="s">
-        <v>3960</v>
+        <v>3959</v>
       </c>
       <c r="D491" s="3" t="s">
         <v>1892</v>
@@ -34969,7 +34974,7 @@
     </row>
     <row r="493" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A493" s="3" t="s">
-        <v>3994</v>
+        <v>3993</v>
       </c>
       <c r="B493" s="3" t="s">
         <v>579</v>
@@ -34978,7 +34983,7 @@
         <v>2866</v>
       </c>
       <c r="D493" s="3" t="s">
-        <v>3995</v>
+        <v>3994</v>
       </c>
       <c r="E493" s="3" t="s">
         <v>575</v>
@@ -35249,7 +35254,7 @@
     </row>
     <row r="499" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A499" s="3" t="s">
-        <v>3919</v>
+        <v>3918</v>
       </c>
       <c r="B499" s="3" t="s">
         <v>2391</v>
@@ -35258,7 +35263,7 @@
         <v>2351</v>
       </c>
       <c r="D499" s="3" t="s">
-        <v>3918</v>
+        <v>3917</v>
       </c>
       <c r="E499" s="3" t="s">
         <v>432</v>
@@ -35577,13 +35582,13 @@
     </row>
     <row r="506" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A506" s="3" t="s">
-        <v>3901</v>
+        <v>3900</v>
       </c>
       <c r="B506" s="3" t="s">
         <v>474</v>
       </c>
       <c r="C506" s="3" t="s">
-        <v>3902</v>
+        <v>3901</v>
       </c>
       <c r="D506" s="3" t="s">
         <v>1214</v>
@@ -36261,7 +36266,7 @@
     </row>
     <row r="521" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A521" s="3" t="s">
-        <v>4010</v>
+        <v>4009</v>
       </c>
       <c r="B521" s="3" t="s">
         <v>840</v>
@@ -36270,7 +36275,7 @@
         <v>1131</v>
       </c>
       <c r="D521" s="3" t="s">
-        <v>4011</v>
+        <v>4010</v>
       </c>
       <c r="E521" s="3" t="s">
         <v>92</v>
@@ -36309,14 +36314,14 @@
     </row>
     <row r="522" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A522" s="6" t="s">
-        <v>4008</v>
+        <v>4007</v>
       </c>
       <c r="B522" s="6" t="s">
         <v>840</v>
       </c>
       <c r="C522" s="6"/>
       <c r="D522" s="6" t="s">
-        <v>4009</v>
+        <v>4008</v>
       </c>
       <c r="E522" s="7"/>
       <c r="F522" s="6"/>
@@ -36424,7 +36429,7 @@
     </row>
     <row r="525" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A525" s="3" t="s">
-        <v>3903</v>
+        <v>3902</v>
       </c>
       <c r="B525" s="3" t="s">
         <v>106</v>
@@ -36658,16 +36663,16 @@
     </row>
     <row r="530" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A530" s="6" t="s">
+        <v>3951</v>
+      </c>
+      <c r="B530" s="6" t="s">
         <v>3952</v>
       </c>
-      <c r="B530" s="6" t="s">
+      <c r="C530" s="6" t="s">
         <v>3953</v>
       </c>
-      <c r="C530" s="6" t="s">
+      <c r="D530" s="6" t="s">
         <v>3954</v>
-      </c>
-      <c r="D530" s="6" t="s">
-        <v>3955</v>
       </c>
       <c r="E530" s="7">
         <v>2002</v>
@@ -37707,7 +37712,7 @@
     </row>
     <row r="553" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A553" s="3" t="s">
-        <v>3913</v>
+        <v>3912</v>
       </c>
       <c r="B553" s="3" t="s">
         <v>1125</v>
@@ -37891,7 +37896,7 @@
     </row>
     <row r="557" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A557" s="3" t="s">
-        <v>4012</v>
+        <v>4011</v>
       </c>
       <c r="B557" s="3" t="s">
         <v>109</v>
@@ -38169,7 +38174,7 @@
     </row>
     <row r="563" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A563" s="3" t="s">
-        <v>4013</v>
+        <v>4012</v>
       </c>
       <c r="B563" s="3" t="s">
         <v>318</v>
@@ -38957,7 +38962,7 @@
     </row>
     <row r="580" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A580" s="3" t="s">
-        <v>3904</v>
+        <v>3903</v>
       </c>
       <c r="B580" s="3" t="s">
         <v>1028</v>
@@ -39003,7 +39008,7 @@
     </row>
     <row r="581" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A581" s="3" t="s">
-        <v>3905</v>
+        <v>3904</v>
       </c>
       <c r="B581" s="3" t="s">
         <v>1158</v>
@@ -39097,7 +39102,7 @@
     </row>
     <row r="583" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A583" s="19" t="s">
-        <v>3921</v>
+        <v>3920</v>
       </c>
       <c r="B583" s="11" t="s">
         <v>2262</v>
@@ -39106,7 +39111,7 @@
         <v>2263</v>
       </c>
       <c r="D583" s="19" t="s">
-        <v>3920</v>
+        <v>3919</v>
       </c>
       <c r="E583" s="28" t="s">
         <v>357</v>
@@ -39237,7 +39242,7 @@
     </row>
     <row r="586" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A586" s="3" t="s">
-        <v>3906</v>
+        <v>3905</v>
       </c>
       <c r="B586" s="3" t="s">
         <v>1324</v>
@@ -39375,7 +39380,7 @@
     </row>
     <row r="589" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A589" s="3" t="s">
-        <v>3908</v>
+        <v>3907</v>
       </c>
       <c r="B589" s="3" t="s">
         <v>331</v>
@@ -39467,13 +39472,13 @@
     </row>
     <row r="591" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A591" s="3" t="s">
-        <v>3982</v>
+        <v>3981</v>
       </c>
       <c r="B591" s="3" t="s">
         <v>220</v>
       </c>
       <c r="C591" s="3" t="s">
-        <v>3981</v>
+        <v>3980</v>
       </c>
       <c r="D591" s="3" t="s">
         <v>659</v>
@@ -39747,7 +39752,7 @@
     </row>
     <row r="597" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A597" s="3" t="s">
-        <v>3965</v>
+        <v>3964</v>
       </c>
       <c r="B597" s="3" t="s">
         <v>2003</v>
@@ -39756,7 +39761,7 @@
         <v>2004</v>
       </c>
       <c r="D597" s="3" t="s">
-        <v>3966</v>
+        <v>3965</v>
       </c>
       <c r="E597" s="3" t="s">
         <v>155</v>
@@ -39795,7 +39800,7 @@
     </row>
     <row r="598" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A598" s="3" t="s">
-        <v>4014</v>
+        <v>4013</v>
       </c>
       <c r="B598" s="3" t="s">
         <v>1781</v>
@@ -39804,7 +39809,7 @@
         <v>2002</v>
       </c>
       <c r="D598" s="3" t="s">
-        <v>4015</v>
+        <v>4014</v>
       </c>
       <c r="E598" s="3" t="s">
         <v>1209</v>
@@ -40119,10 +40124,10 @@
     </row>
     <row r="605" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A605" s="6" t="s">
+        <v>4016</v>
+      </c>
+      <c r="B605" s="6" t="s">
         <v>4017</v>
-      </c>
-      <c r="B605" s="6" t="s">
-        <v>4018</v>
       </c>
       <c r="C605" s="6"/>
       <c r="D605" s="6" t="s">
@@ -40144,14 +40149,14 @@
     </row>
     <row r="606" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A606" s="6" t="s">
+        <v>4018</v>
+      </c>
+      <c r="B606" s="6" t="s">
         <v>4019</v>
-      </c>
-      <c r="B606" s="6" t="s">
-        <v>4020</v>
       </c>
       <c r="C606" s="6"/>
       <c r="D606" s="6" t="s">
-        <v>4021</v>
+        <v>4020</v>
       </c>
       <c r="E606" s="7">
         <v>2001</v>
@@ -40483,10 +40488,10 @@
     </row>
     <row r="614" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A614" s="6" t="s">
+        <v>4021</v>
+      </c>
+      <c r="B614" s="6" t="s">
         <v>4022</v>
-      </c>
-      <c r="B614" s="6" t="s">
-        <v>4023</v>
       </c>
       <c r="C614" s="6"/>
       <c r="D614" s="6" t="s">
@@ -40970,7 +40975,7 @@
     </row>
     <row r="625" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A625" s="3" t="s">
-        <v>3956</v>
+        <v>3955</v>
       </c>
       <c r="B625" s="3" t="s">
         <v>628</v>
@@ -40979,7 +40984,7 @@
         <v>2574</v>
       </c>
       <c r="D625" s="3" t="s">
-        <v>3923</v>
+        <v>3922</v>
       </c>
       <c r="E625" s="3" t="s">
         <v>167</v>
@@ -41018,16 +41023,16 @@
     </row>
     <row r="626" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A626" s="18" t="s">
-        <v>3922</v>
+        <v>3921</v>
       </c>
       <c r="B626" s="18" t="s">
         <v>920</v>
       </c>
       <c r="C626" s="19" t="s">
-        <v>3923</v>
+        <v>3922</v>
       </c>
       <c r="D626" s="20" t="s">
-        <v>3923</v>
+        <v>3922</v>
       </c>
       <c r="E626" s="28">
         <v>2016</v>
@@ -41187,7 +41192,7 @@
     </row>
     <row r="630" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A630" s="3" t="s">
-        <v>3907</v>
+        <v>3906</v>
       </c>
       <c r="B630" s="3" t="s">
         <v>383</v>
@@ -41325,7 +41330,7 @@
     </row>
     <row r="633" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A633" s="3" t="s">
-        <v>3909</v>
+        <v>3908</v>
       </c>
       <c r="B633" s="3" t="s">
         <v>331</v>
@@ -41371,7 +41376,7 @@
     </row>
     <row r="634" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A634" s="3" t="s">
-        <v>3910</v>
+        <v>3909</v>
       </c>
       <c r="B634" s="3" t="s">
         <v>579</v>
@@ -41463,7 +41468,7 @@
     </row>
     <row r="636" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A636" s="3" t="s">
-        <v>4024</v>
+        <v>4023</v>
       </c>
       <c r="B636" s="3" t="s">
         <v>1021</v>
@@ -41509,7 +41514,7 @@
     </row>
     <row r="637" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A637" s="3" t="s">
-        <v>4025</v>
+        <v>4024</v>
       </c>
       <c r="B637" s="3" t="s">
         <v>383</v>
@@ -42479,7 +42484,7 @@
         <v>377</v>
       </c>
       <c r="C658" s="12" t="s">
-        <v>4000</v>
+        <v>3999</v>
       </c>
       <c r="D658" s="12" t="s">
         <v>915</v>
@@ -42567,7 +42572,7 @@
     </row>
     <row r="660" spans="1:16" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A660" s="12" t="s">
-        <v>4001</v>
+        <v>4000</v>
       </c>
       <c r="B660" s="12" t="s">
         <v>383</v>
@@ -43027,10 +43032,10 @@
         <v>3440</v>
       </c>
       <c r="M669" s="22" t="s">
+        <v>4033</v>
+      </c>
+      <c r="N669" s="22" t="s">
         <v>4034</v>
-      </c>
-      <c r="N669" s="22" t="s">
-        <v>4035</v>
       </c>
       <c r="O669" s="21" t="s">
         <v>1926</v>
@@ -43411,7 +43416,7 @@
     </row>
     <row r="678" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A678" s="12" t="s">
-        <v>3932</v>
+        <v>3931</v>
       </c>
       <c r="B678" s="12" t="s">
         <v>2683</v>
@@ -43420,7 +43425,7 @@
         <v>864</v>
       </c>
       <c r="D678" s="12" t="s">
-        <v>3933</v>
+        <v>3932</v>
       </c>
       <c r="E678" s="12" t="s">
         <v>64</v>
@@ -43555,13 +43560,13 @@
     </row>
     <row r="681" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A681" s="2" t="s">
+        <v>4025</v>
+      </c>
+      <c r="B681" s="2" t="s">
         <v>4026</v>
       </c>
-      <c r="B681" s="2" t="s">
+      <c r="C681" s="2" t="s">
         <v>4027</v>
-      </c>
-      <c r="C681" s="2" t="s">
-        <v>4028</v>
       </c>
       <c r="D681" s="2" t="s">
         <v>356</v>
@@ -44182,7 +44187,7 @@
     </row>
     <row r="695" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A695" s="17" t="s">
-        <v>3957</v>
+        <v>3956</v>
       </c>
       <c r="B695" s="14" t="s">
         <v>377</v>
